--- a/etl/data/DIUSHIBEIDAO_WP.xlsx
+++ b/etl/data/DIUSHIBEIDAO_WP.xlsx
@@ -12,32 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>YWLSH</t>
-  </si>
-  <si>
-    <t>YZBWXHXPDM</t>
-  </si>
-  <si>
-    <t>WP_NAME</t>
-  </si>
-  <si>
-    <t>BC_MC</t>
-  </si>
-  <si>
-    <t>DSBD_YZBWXHXPJLDWLX</t>
-  </si>
-  <si>
-    <t>DSBD_SZ</t>
-  </si>
-  <si>
-    <t>DJSJ</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -86,40 +61,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.37109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.31640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.5546875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="24.09765625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="9.0859375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.8046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="2.9453125" customWidth="true"/>
+    <col min="2" max="2" width="7.37109375" customWidth="true"/>
+    <col min="3" max="3" width="14.31640625" customWidth="true"/>
+    <col min="4" max="4" width="10.875" customWidth="true"/>
+    <col min="5" max="5" width="7.5546875" customWidth="true"/>
+    <col min="6" max="6" width="24.09765625" customWidth="true"/>
+    <col min="7" max="7" width="9.0859375" customWidth="true"/>
+    <col min="8" max="8" width="4.8046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>YWLSH</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>YZBWXHXPDM</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>WP_NAME</t>
+        </is>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>BC_MC</t>
+        </is>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DSBD_YZBWXHXPJLDWLX</t>
+        </is>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DSBD_SZ</t>
+        </is>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>DJSJ</t>
+        </is>
       </c>
     </row>
   </sheetData>
